--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -677,9 +677,6 @@
     <t>CD19,CD27,IgD,CD38,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,JCHAIN,SSR4,FKBP11,SEC11C,DERL3,PRDX4,IGLL5,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,CD138,CD38,CD27,VPREB3,IGLL5</t>
   </si>
   <si>
-    <t>CD19,CD27,IgD,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,CXCL8,S100A12,LYZ,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,VPREB3,IGLL5</t>
-  </si>
-  <si>
     <t>CD19,CD27,IgD,CD24,PTPRC,PAX5,CD24,CD38,CD79A,NSMCE1,PCDH9,ACSM3,CCDC191,TCL1A,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,VPREB3,IGLL5</t>
   </si>
   <si>
@@ -1524,6 +1521,9 @@
   </si>
   <si>
     <t>I_Monocytes</t>
+  </si>
+  <si>
+    <t>CD19,CD27,IgD,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,CXCL8,S100A12,LYZ,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,VPREB3,IGLL5,CD10</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1947,7 +1947,7 @@
         <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1958,11 +1958,11 @@
         <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,11 +1973,11 @@
         <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,13 +1988,13 @@
         <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>499</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,13 +2054,13 @@
         <v>204</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2071,13 +2071,13 @@
         <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2088,11 +2088,11 @@
         <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2103,11 +2103,11 @@
         <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2118,13 +2118,13 @@
         <v>206</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,16 +2149,16 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2184,11 +2184,11 @@
         <v>208</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,11 +2199,11 @@
         <v>209</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,13 +2214,13 @@
         <v>186</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -2246,7 +2246,7 @@
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -2261,7 +2261,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -2276,11 +2276,11 @@
         <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2291,13 +2291,13 @@
         <v>105</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
         <v>106</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2325,13 +2325,13 @@
         <v>195</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2342,13 +2342,13 @@
         <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2389,11 +2389,11 @@
         <v>98</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,13 +2404,13 @@
         <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2466,11 +2466,11 @@
         <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2478,14 +2478,14 @@
         <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2616,11 +2616,11 @@
         <v>21</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2796,11 +2796,11 @@
         <v>21</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2991,11 +2991,11 @@
         <v>123</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,11 +3006,11 @@
         <v>124</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3096,11 +3096,11 @@
         <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3246,11 +3246,11 @@
         <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3870,58 +3870,58 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
@@ -3930,73 +3930,73 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
@@ -4005,13 +4005,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
@@ -4020,433 +4020,433 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
@@ -4455,103 +4455,103 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
@@ -4560,152 +4560,152 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4713,14 +4713,14 @@
         <v>95</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4731,11 +4731,11 @@
         <v>148</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4746,11 +4746,11 @@
         <v>148</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4758,29 +4758,29 @@
         <v>109</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4788,14 +4788,14 @@
         <v>7</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4806,11 +4806,11 @@
         <v>148</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="495">
   <si>
     <t>tissueType</t>
   </si>
@@ -608,9 +608,6 @@
     <t>CD20,MS4A1</t>
   </si>
   <si>
-    <t>Immature B cells</t>
-  </si>
-  <si>
     <t>Intermediate monocytes</t>
   </si>
   <si>
@@ -629,9 +626,6 @@
     <t>PTPRC,CD38</t>
   </si>
   <si>
-    <t>CD27</t>
-  </si>
-  <si>
     <t>CD105,CD34,CD44,CD73,CD45,CD29,STRO-1,NANOG,SOX2,CD133,CD166,CD146,CD31,Nestin,OCT4,CD117,KDR,AVP,CRHBP,ALDH1A1,STMN1,CD38,PTPRC,CD135</t>
   </si>
   <si>
@@ -1145,9 +1139,6 @@
     <t>SELL,CCR7</t>
   </si>
   <si>
-    <t>CD27,CD10</t>
-  </si>
-  <si>
     <t>shortName</t>
   </si>
   <si>
@@ -1157,9 +1148,6 @@
     <t>Pre-B</t>
   </si>
   <si>
-    <t>Immature B</t>
-  </si>
-  <si>
     <t>Naive B</t>
   </si>
   <si>
@@ -1521,9 +1509,6 @@
   </si>
   <si>
     <t>I_Monocytes</t>
-  </si>
-  <si>
-    <t>CD19,CD27,IgD,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,CXCL8,S100A12,LYZ,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,VPREB3,IGLL5,CD10</t>
   </si>
 </sst>
 </file>
@@ -1918,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,10 +1929,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1958,11 +1943,11 @@
         <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,11 +1958,11 @@
         <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1985,16 +1970,14 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2002,16 +1985,14 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2019,14 +2000,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2034,16 +2017,16 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2051,16 +2034,16 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,16 +2051,14 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2085,14 +2066,14 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2100,14 +2081,16 @@
         <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2115,16 +2098,16 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,16 +2115,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>495</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,16 +2132,14 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>372</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>381</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,14 +2147,14 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2181,14 +2162,14 @@
         <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2196,14 +2177,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2211,16 +2194,14 @@
         <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2228,14 +2209,14 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2243,14 +2224,14 @@
         <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>366</v>
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2258,14 +2239,14 @@
         <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>221</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2273,14 +2254,16 @@
         <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>385</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2288,16 +2271,16 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2305,16 +2288,16 @@
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2322,7 +2305,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>369</v>
@@ -2331,7 +2314,7 @@
         <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>498</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2339,16 +2322,14 @@
         <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2356,14 +2337,14 @@
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2371,14 +2352,14 @@
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2386,14 +2367,16 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,16 +2384,14 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>391</v>
+      <c r="D30" s="2"/>
+      <c r="E30" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,14 +2399,14 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="5" t="s">
-        <v>392</v>
+      <c r="E31" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2433,14 +2414,14 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2448,14 +2429,14 @@
         <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2463,29 +2444,29 @@
         <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="4" t="s">
         <v>232</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>235</v>
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="2" t="s">
-        <v>396</v>
+      <c r="E35" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2493,14 +2474,14 @@
         <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2508,14 +2489,14 @@
         <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2523,14 +2504,14 @@
         <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2538,14 +2519,14 @@
         <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2553,14 +2534,14 @@
         <v>71</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2568,14 +2549,14 @@
         <v>71</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2583,14 +2564,14 @@
         <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2598,14 +2579,14 @@
         <v>71</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2613,14 +2594,14 @@
         <v>71</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2628,14 +2609,14 @@
         <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,14 +2624,14 @@
         <v>71</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2658,14 +2639,14 @@
         <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,29 +2654,29 @@
         <v>71</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2703,14 +2684,14 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2718,14 +2699,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2733,14 +2714,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2748,14 +2729,14 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>411</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2763,14 +2744,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2778,14 +2759,14 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,14 +2774,14 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2808,14 +2789,14 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2823,14 +2804,14 @@
         <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2838,14 +2819,14 @@
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>385</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2853,29 +2834,29 @@
         <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2883,14 +2864,14 @@
         <v>109</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>414</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2898,14 +2879,14 @@
         <v>109</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>8</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2913,14 +2894,14 @@
         <v>109</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,14 +2909,14 @@
         <v>109</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2943,14 +2924,14 @@
         <v>109</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2958,14 +2939,14 @@
         <v>109</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2973,14 +2954,14 @@
         <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2988,14 +2969,14 @@
         <v>109</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3003,14 +2984,14 @@
         <v>109</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3018,14 +2999,14 @@
         <v>109</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3033,14 +3014,14 @@
         <v>109</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>422</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3048,14 +3029,14 @@
         <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>128</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3063,14 +3044,14 @@
         <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3078,14 +3059,14 @@
         <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3093,14 +3074,14 @@
         <v>109</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>404</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3108,14 +3089,14 @@
         <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3123,14 +3104,14 @@
         <v>109</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3138,14 +3119,14 @@
         <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>5</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3153,14 +3134,14 @@
         <v>109</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3168,14 +3149,14 @@
         <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3183,14 +3164,14 @@
         <v>109</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3198,29 +3179,29 @@
         <v>109</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3228,14 +3209,14 @@
         <v>150</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>149</v>
+        <v>361</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3243,14 +3224,14 @@
         <v>150</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3258,14 +3239,14 @@
         <v>150</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,14 +3254,14 @@
         <v>150</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3288,14 +3269,14 @@
         <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>434</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3303,14 +3284,14 @@
         <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3318,14 +3299,14 @@
         <v>150</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>159</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3333,14 +3314,14 @@
         <v>150</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3348,14 +3329,14 @@
         <v>150</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3363,14 +3344,14 @@
         <v>150</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,14 +3359,14 @@
         <v>150</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>454</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3393,14 +3374,14 @@
         <v>150</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>189</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3408,14 +3389,14 @@
         <v>150</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3423,14 +3404,14 @@
         <v>150</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3438,14 +3419,14 @@
         <v>150</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3453,14 +3434,14 @@
         <v>150</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,14 +3449,14 @@
         <v>150</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3483,14 +3464,14 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,14 +3479,14 @@
         <v>150</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3513,29 +3494,29 @@
         <v>150</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3543,14 +3524,14 @@
         <v>7</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3558,14 +3539,14 @@
         <v>7</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3573,14 +3554,14 @@
         <v>7</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -3588,14 +3569,14 @@
         <v>7</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -3603,14 +3584,14 @@
         <v>7</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -3618,14 +3599,14 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3633,14 +3614,14 @@
         <v>7</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3648,14 +3629,14 @@
         <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>364</v>
+        <v>23</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -3663,14 +3644,14 @@
         <v>7</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>22</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -3678,14 +3659,14 @@
         <v>7</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,14 +3674,14 @@
         <v>7</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,14 +3689,14 @@
         <v>7</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3723,14 +3704,14 @@
         <v>7</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>464</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3738,14 +3719,14 @@
         <v>7</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,14 +3734,14 @@
         <v>7</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3768,14 +3749,14 @@
         <v>7</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3783,14 +3764,14 @@
         <v>7</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>467</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3798,14 +3779,14 @@
         <v>7</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>40</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3813,14 +3794,14 @@
         <v>7</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3828,14 +3809,14 @@
         <v>7</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>469</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3843,34 +3824,34 @@
         <v>7</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>48</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>240</v>
@@ -3880,12 +3861,12 @@
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>242</v>
@@ -3895,42 +3876,42 @@
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>247</v>
@@ -3940,12 +3921,12 @@
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>485</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>249</v>
@@ -3955,12 +3936,12 @@
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>249</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>251</v>
@@ -3970,57 +3951,57 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>474</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>3</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>257</v>
@@ -4030,12 +4011,12 @@
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>475</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>259</v>
@@ -4045,12 +4026,12 @@
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>259</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>261</v>
@@ -4060,12 +4041,12 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>263</v>
@@ -4075,27 +4056,27 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>488</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>275</v>
@@ -4105,12 +4086,12 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>275</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>277</v>
@@ -4120,12 +4101,12 @@
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>279</v>
@@ -4135,12 +4116,12 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>281</v>
@@ -4150,42 +4131,42 @@
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>478</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>283</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>489</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>286</v>
@@ -4195,12 +4176,12 @@
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>286</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>288</v>
@@ -4210,27 +4191,27 @@
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>293</v>
@@ -4240,12 +4221,12 @@
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>295</v>
@@ -4255,12 +4236,12 @@
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>482</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>297</v>
@@ -4270,12 +4251,12 @@
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>297</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>299</v>
@@ -4285,12 +4266,12 @@
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>483</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>301</v>
@@ -4300,12 +4281,12 @@
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>301</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>303</v>
@@ -4315,12 +4296,12 @@
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>305</v>
@@ -4330,12 +4311,12 @@
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>307</v>
@@ -4345,12 +4326,12 @@
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>309</v>
@@ -4360,12 +4341,12 @@
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>311</v>
@@ -4375,12 +4356,12 @@
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>313</v>
@@ -4390,12 +4371,12 @@
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>315</v>
@@ -4405,72 +4386,72 @@
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>444</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>189</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>324</v>
@@ -4480,18 +4461,18 @@
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
@@ -4500,22 +4481,22 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>329</v>
@@ -4525,42 +4506,42 @@
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>331</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>334</v>
@@ -4570,12 +4551,12 @@
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>336</v>
@@ -4585,12 +4566,12 @@
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>338</v>
@@ -4600,27 +4581,27 @@
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>343</v>
@@ -4630,12 +4611,12 @@
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>345</v>
@@ -4645,12 +4626,12 @@
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>347</v>
@@ -4660,12 +4641,12 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>349</v>
@@ -4675,12 +4656,12 @@
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>351</v>
@@ -4695,58 +4676,58 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
@@ -4755,28 +4736,28 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
@@ -4788,44 +4769,29 @@
         <v>7</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79818\Desktop\projects\scType\NewCode\processPBMC3k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAB393E-A7C0-40BD-B780-93BBA39E5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18972" windowHeight="8448" tabRatio="500"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="530">
   <si>
     <t>tissueType</t>
   </si>
@@ -665,9 +669,6 @@
     <t>Naive B cells</t>
   </si>
   <si>
-    <t>CD19,CD27,IgD,CD38,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,JCHAIN,SSR4,FKBP11,SEC11C,DERL3,PRDX4,IGLL5,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,CD138,CD38,VPREB3,IGLL5</t>
-  </si>
-  <si>
     <t>CD19,CD27,IgD,CD38,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,JCHAIN,SSR4,FKBP11,SEC11C,DERL3,PRDX4,IGLL5,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,CD138,CD38,CD27,VPREB3,IGLL5</t>
   </si>
   <si>
@@ -842,252 +843,21 @@
     <t>FUT4,MSI1,NES,PROM1,SOX2,THY1</t>
   </si>
   <si>
-    <t>Embryo</t>
-  </si>
-  <si>
     <t>Cardiomyocytes</t>
   </si>
   <si>
-    <t>SIRPA,VCAM1</t>
-  </si>
-  <si>
-    <t>Embryonic stem cells</t>
-  </si>
-  <si>
-    <t>ABCG2,ANO6,BCL3,BNIP3,CD24,CD59,CD9,CDH1,CDK8,CTNNB1,DNMT3B,DPPA2,DPPA3,DPPA4,EPCAM,ESRRB,FBXO15,FUT4,FZD1,GAL,GDF3,GJB1,GJB4,GJC1,HES1,HHEX,HMGA2,HOXB5,IL6ST,ITGA4,ITGA6,ITGB1,KCNIP3,KIT,KITLG,KLF4,L1TD1,LEF1,LIFR,LMNA,MYC,NACC1,NANOG,NR6A1,PCGF2,PECAM1,PITX2,PIWIL1,PIWIL2,PIWIL4,PML,PODXL,POU5F1,PRDM5,PROM1,PUM2,SALL4,SLC46A2,SMAD1,SMAD2,SMAD3,SMAD4,SMAD5,SMAD9,SOX15,SOX2,STAT3,SUMO2,TAF8,TDGF1,TEX19,THY1,TRIM28,TRIM6,ZFP42,ZFX,ZIC1</t>
-  </si>
-  <si>
-    <t>Epiblast cells</t>
-  </si>
-  <si>
-    <t>BCL11A,CDH1,CLDN6,CLDN7,CRMP1,CXCL12,DPYSL5,EPCAM,INA,LEF1,MFAP2,NANOG,POU5F1,SLC35D3,SOX11,TDGF1</t>
-  </si>
-  <si>
-    <t>Germ cells</t>
-  </si>
-  <si>
-    <t>DAZL,POU5F1</t>
-  </si>
-  <si>
-    <t>Hemangioblasts</t>
-  </si>
-  <si>
-    <t>ETV2,TAL1</t>
-  </si>
-  <si>
-    <t>ENG,NT5E,THY1</t>
-  </si>
-  <si>
-    <t>Neurons</t>
-  </si>
-  <si>
-    <t>ARX,IGFBPL1,MAF,NEUROD1,NEUROD6,PLS3</t>
-  </si>
-  <si>
-    <t>Trophoblast cells</t>
-  </si>
-  <si>
-    <t>ACKR2,ADAM19,ASCL2,CD4,CDX2,DLX3,ELF5,HAND1,HLA-G,HOPX,IGF2,INHBA,KRT7,LIF,MLANA,PARP1,PERP,PHLDA2,PTHLH,S100P,SERPINE1,SIRT1,STAR,TFEB,TNFRSF9,TTPA</t>
-  </si>
-  <si>
-    <t>Trophoblast progenitor cells</t>
-  </si>
-  <si>
-    <t>FOXO4,ISG20,TFAP2C</t>
-  </si>
-  <si>
-    <t>Gastrointestinal tract</t>
-  </si>
-  <si>
-    <t>Crypt cells</t>
-  </si>
-  <si>
-    <t>ASCL2,AXIN2,BMI1,EPHB2,HOPX,KCNE3,KCNQ1,LGR5,LRIG1,MSI1,OLFM4,PROM1,SLC12A2,SMOC2,TNFRSF19</t>
-  </si>
-  <si>
-    <t>Enteric glia cells</t>
-  </si>
-  <si>
-    <t>ALDH1A1,ALDH1A3,CXCL14,DHRS3,DKK3,GFAP,GFRA3,INTS6,L1CAM,LGI4,MPZ,NOS2,RGS16,S100B,SLC18A2,SOX10</t>
-  </si>
-  <si>
-    <t>Enteric neurons</t>
-  </si>
-  <si>
-    <t>AHDC1,ARHGAP26,ARHGEF28,ASTN1,ATF5,CACNA1B,CACNA1E,CARTPT,CASZ1,CCK,CELF6,CHRNA3,CYB561,CYTH3,DMKN,EFNA5,EML5,FBXO7,FILIP1,FLOT2,FSTL5,GAL,GCNT2,GFRA2,GOLGA7B,GPR22,HAND2,HIVEP3,HOXA5,HOXB4,HOXB5,IGF2BP3,JPH3,LIX1,MAP6,MFSD6,MYL1,NMU,PARVA,PHOX2B,PIK3CA,PIRT,PLCE1,PLEKHA5,PPP2R5B,RET,RGMB,RGS3,SCN3A,SCN7A,SLC10A4,SLC18A3,SLC5A7,SLC7A14,SNX21,STXBP5,TAC1,TAFA1,TAFA5,TLX2,TM4SF4,TOX,TSHZ1,TTBK2,TUB,VEZT,VIP,VSTM2L,ZDHHC2</t>
-  </si>
-  <si>
-    <t>Enterochromaffin cells</t>
-  </si>
-  <si>
-    <t>ADM,AFP,CRH,FGF1,GJB1,LMX1A,PIEZO2,REG4,SLC18A1,TPH1,TRPA1</t>
-  </si>
-  <si>
-    <t>Enterocytes</t>
-  </si>
-  <si>
-    <t>ABCC2,ABCG2,ABCG5,ABCG8,ABHD11,ACSL5,ALDOB,ALPI,ANPEP,APOA1,APOA4,APOB,APOBEC1,APOC3,AQP1,AQP11,AQP7,AQP8,ART3,ASCL2,ASPN,CA1,CASP6,CBR1,CCL25,CD36,CD55,CDC42EP5,CDH17,CDH19,CDO1,CDX1,CDX2,CEACAM1,CLDN15,COL18A1,COL20A1,CPS1,CREB3L3,CTRB1,CYBRD1,DAB1,DEGS2,DGAT1,DGAT2,DMBT1,DPP4,EHF,ELF3,EPHX2,FABP1,FABP2,FABP6,FAHD1,FBP2,FERMT1,FLOT2,FUOM,G0S2,GATA4,GFRA2,GLS,GSTA1,GSTM3,GULP1,HMOX1,HNF4A,ISX,KHK,KLF5,KRT20,KRTCAP3,L1CAM,LCT,LGALS2,LYPD8,MAOA,MEP1A,MOGAT2,MTTP,MUC13,MYO1A,NKD2,NLRP6,NPC1L1,NR1H4,NR5A2,OTC,PDHA1,PDZK1,PHGR1,PLIN2,PLIN3,PMEPA1,PPARG,PPP1R14D,PRAP1,PRR15L,PRSS2,RBP2,REG3A,RGMB,RNF186,S100G,SDSL,SLC10A2,SLC11A2,SLC15A1,SLC23A1,SLC26A2,SLC26A3,SLC28A1,SLC28A2,SLC2A2,SLC2A5,SLC30A10,SLC35F1,SLC39A5,SLC40A1,SLC51A,SLC51B,SLC5A1,SMOC2,SOX10,SPON2,TM4SF5,TM6SF2,TMC4,TMEM45B,TREH,TRPM6,VDR,VIL1,VNN1</t>
-  </si>
-  <si>
-    <t>Enteroendocrine cells</t>
-  </si>
-  <si>
-    <t>AFP,ARX,CCK,CHGA,CHGB,CPE,ENPP2,FABP5,FFAR1,FFAR4,GAL,GAST,GCG,GFRA3,GHRL,GIP,IAPP,ISL1,NEUROD1,NEUROG3,NKX2-2,NTS,NUCB2,PAX6,PCSK1,PYY,RIMBP2,SCGN,SCN3A,SCT,SST,SSTR2,TAC1,TRPA1,VEGFA,VWA5B2</t>
-  </si>
-  <si>
-    <t>Foveolar cells</t>
-  </si>
-  <si>
-    <t>AKR1B10,ANXA10,CLDN18,CLPS,FOXQ1,GKN1,GKN2,GSTA1,IL33,KRT20,LGALS2,LGALS4,MUC1,PGC,PLA2G1B,PSCA,PTGR1,SULT1C2,TFF1,TFF2</t>
-  </si>
-  <si>
-    <t>Gastric chief cells</t>
-  </si>
-  <si>
-    <t>ANPEP,CHRM3,EGFR,KCNQ1,LGR5,PRKCZ,RAB3D</t>
-  </si>
-  <si>
     <t>Goblet cells</t>
   </si>
   <si>
-    <t>AGR2,AQP3,ATOH1,BACE2,CDON,CDX2,CLCA1,CREB3L1,FCGBP,GALNT12,GUCA2A,ITLN1,KLK1,KRT20,KRT7,LRRC26,MANF,MUC13,MUC2,MUC4,MUC5B,NLRP6,PDIA5,PHGR1,PLA2G10,REP15,SLC9A8,SPDEF,SPINK4,TFF3,TPSG1,ZG16</t>
-  </si>
-  <si>
-    <t>Microfold cells</t>
-  </si>
-  <si>
-    <t>AHR,ANXA5,CCL20,CTSD,CTSH,CXCL16,CYBA,EHF,FABP5,FOSL2,FOXP4,GJB2,GP2,IRF2,IRF6,MARCKSL1,MFGE8,MIER3,MTF1,NFIB,NFIC,ONECUT2,PGLYRP1,RAC2,RELB,SOX8,SPIB,TMPRSS2,TNFAIP2,TULP4</t>
-  </si>
-  <si>
-    <t>Paneth cells</t>
-  </si>
-  <si>
-    <t>ADIPOQ,AGR2,ATG16L1,CFD,CLCA1,CSF2,CTNNB1,DEFA3,DEFA5,DLL1,DLL4,DMBT1,FABP4,GPX2,GUCA2A,GUCA2B,IL4R,ITLN1,KCNN4,KLF15,LGALS2,LGR4,LYZ,MMP7,MPTX1,MUC2,PLA2G2A,PNLIPRP2,PRSS1,RAP1A,REG3G,RETNLB,RIPK2,SPINK4,TM4SF20,WNT3</t>
-  </si>
-  <si>
-    <t>Parietal cells</t>
-  </si>
-  <si>
-    <t>AQP4,BMI1,CD24,HAMP,HDC,HIP1R,KCNE2,KCNQ1,PODXL,PTCH1,SHH,SLC12A6</t>
-  </si>
-  <si>
-    <t>Tuft cells</t>
-  </si>
-  <si>
-    <t>ALOX5,ATOH1,AVIL,CAMK2B,CDHR2,DCLK1,ESPN,FABP1,GFI1B,GNG13,IL13RA1,IL17RB,IRF7,KLF3,KLF6,LRMP,NREP,PLCB2,POU2F3,PTGS1,PTPRC,RAC2,RGS2,SOX9,TRPM5,TSLP</t>
-  </si>
-  <si>
     <t>Muscle</t>
   </si>
   <si>
-    <t>Airway smooth muscle cells</t>
-  </si>
-  <si>
-    <t>ACTA2,FOXF1,GATA5,NOG</t>
-  </si>
-  <si>
-    <t>CD34,CDH5,PECAM1</t>
-  </si>
-  <si>
-    <t>CD44,ENG,NT5E,THY1</t>
-  </si>
-  <si>
-    <t>Muscle satellite cell</t>
-  </si>
-  <si>
-    <t>CD82,PAX7</t>
-  </si>
-  <si>
-    <t>Myoblasts</t>
-  </si>
-  <si>
-    <t>ACHE,ADAM12,ANGPT2,ARL4D,BRAF,CAPN1,CCL2,CDH15,CXCL1,DES,EGFR,ENO3,FGFR4,FLNC,IGF2,LIF,MUSK,MYD88,MYF5,MYOD1,MYOG,NGF,PAX3,PAX7,PDZRN3,SIX1,STK40,TBX3,TNFRSF12A,TPM2,TTN,ZBTB16</t>
-  </si>
-  <si>
-    <t>Myocytes</t>
-  </si>
-  <si>
-    <t>Myoepithelial cells</t>
-  </si>
-  <si>
-    <t>ACTA2,ACTG2,CD109,CDH3,CNN1,EGFR,FST,GRWD1,KRT14,KRT17,KRT5,LAMB3,LAMC2,MDFI,MME,MYH11,MYL9,MYLK,NGFR,PXN,SERPINB5,SFN,SMIM3,SPHK1,TP63</t>
-  </si>
-  <si>
-    <t>Myofibroblasts</t>
-  </si>
-  <si>
-    <t>ACTA2,CALD1,CDH11,DES,GFAP,MYL9,PALLD,TAGLN,TNS1</t>
-  </si>
-  <si>
-    <t>ALPG,CSPG4,MCAM,PDGFRA,PDGFRB</t>
-  </si>
-  <si>
-    <t>Pulmonary vascular smooth muscle cells</t>
-  </si>
-  <si>
-    <t>ANGPT1,PDGFRB</t>
-  </si>
-  <si>
     <t>Satellite cells</t>
   </si>
   <si>
-    <t>ASB5,BARX2,BMI1,CAV1,CD82,CDCP1,CDH1,CDH15,CXCL1,CXCR4,DMD,ERBB2,FOXK1,GAL,HEYL,HMOX1,HOXC10,IRF2,ISL1,ITGA7,MESP1,MET,MSTN,MYF5,MYOD1,NCAM1,NFATC2,NOTCH3,PAX3,PAX7,PEG3,RUNX1,SCRIB,SIX1,SOX8,SPRY1,SRXN1,TCF21,TNFRSF12A,TRIM32,VAMP2,VCAM1</t>
-  </si>
-  <si>
     <t>Smooth muscle cells</t>
   </si>
   <si>
-    <t>ACKR3,ACTA2,ACTC1,ACTG2,ADAMDEC1,AKT2,ANGPT1,ANKRD1,AOC3,BGN,CCN3,CNN1,CRABP1,DES,DMPK,EHD2,FABP4,FAS,FBLN5,FHL2,GJA4,GJC1,HEXIM1,HHIP,HSPB6,ITGA1,ITGA8,ITGA9,JPH2,KAT2B,KCNAB1,KCNMB1,KIF1C,LAMB2,LGR6,LMO7,LMOD1,LOX,MAP3K7CL,MFAP5,MRVI1,MSRB3,MUSTN1,MYH11,MYH6,MYL9,MYLK,NEXN,NF2,NOTCH3,NOX4,NRP2,OBSCN,OGN,OTUD1,PCP4L1,PDE4DIP,PDGFD,PLN,PLXNA1,PRXL2C,RASL12,RBPMS2,RGS5,RPL10,RPRM,RRAD,SEC24D,SH3BGR,SLC38A11,SMOC1,SMTN,SNCG,SOD3,SPEG,SPON2,SSPN,TAGLN,TCF21,VASN,WFDC1,WWP2,ZBTB44</t>
-  </si>
-  <si>
-    <t>Vascular smooth muscle cells</t>
-  </si>
-  <si>
-    <t>ACTA2,MYH11,PDGFRB,SEMA3D,TBX18,WT1</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Keratinocytes</t>
-  </si>
-  <si>
-    <t>ANXA8,AQP3,CALML5,CCL2,CD24,CXCL1,DMKN,DSC3,ENTPD2,FGF5,FST,GJB3,ICAM1,IL13RA1,IRF3,IVL,KRT1,KRT10,KRT14,KRT15,KRT16,KRT17,KRT36,KRT5,KRT84,LAMA5,LAMC2,LCN2,LGALS7,NGFR,PI3,PKP1,PKP3,PLEC,REL,RIPK4,S100A14,SBSN,SFN,SGPP1,SIRT7,SPRR1A,SPRR1B,TFAP2A,TGM1,TRIM29</t>
-  </si>
-  <si>
-    <t>Langerhans cells</t>
-  </si>
-  <si>
-    <t>ACHE,AHR,CCR6,CD1A,CLDN1,EHF,EPCAM,FCGR1A,FCGR2A,GPNMB,HLA-DMA,HLA-DMB,HLA-DQA1,HLA-DQA2,HLA-DQB1,HLA-DRA,HLA-DRB1,HLA-DRB5,HLA-DRB6,PRKCB,PTPRC,TLR2</t>
-  </si>
-  <si>
-    <t>Melanocytes</t>
-  </si>
-  <si>
-    <t>AHNAK2,AHR,BMI1,BNC2,CRABP1,CTNS,DCT,DKK3,ENPP1,FILIP1L,GPNMB,HSPB1,KLC2,LOXL2,MEN1,MITF,MLANA,PAX3,PMEL,POMC,PPARA,PPARD,PPARG,PRKCA,PTGDS,PTN,RAB38,SLC45A2,SLK,SOX9,TFAP2A,TP63,TPH2,TRPM1,TYR,TYRP1,ZC3H7A</t>
-  </si>
-  <si>
-    <t>Merkel cells</t>
-  </si>
-  <si>
-    <t>ATOH1,CD99,CHGA,FLI1,GFI1,GNAI1,ID2,KRT18,KRT20,KRT8,PIEZO2,POU4F3,SOX2,TRPV4,TTF1,VIL1</t>
-  </si>
-  <si>
-    <t>Sebocytes</t>
-  </si>
-  <si>
-    <t>ADIPOR1,ANGPTL4,CALCA,CAMP,CDH1,CEBPA,CEBPB,CRH,CRHR1,EXO1,F2RL1,FFAR2,IHH,KLF5,KRT7,LTA4H,MUC1,PTGER2,RDH12,SRD5A2</t>
-  </si>
-  <si>
-    <t>Trichocytes</t>
-  </si>
-  <si>
-    <t>DSG2,HOXC13,KRT81,KRT86</t>
-  </si>
-  <si>
-    <t>ACTA1,ACTC1,ACTN2,ACTN3,ADAM12,ANKRD1,ARHGAP26,CAPZA3,CAV3,CDH15,CHODL,CKM,CLOCK,CMKLR1,CXCR4,DES,DLL1,DMD,DOCK1,DOCK5,EDN1,ENO3,FHL2,FLNC,GATA4,GATA5,IL4,IQSEC1,ITGA3,ITGA7,LAMA2,LAMB1,LDB1,LDB3,MEF2A,MEF2B,MEF2D,MMP2,MMP9,MRC1,MSTN,MYF5,MYH14,MYH7,MYL1,MYLPF,MYOD1,MYOG,NBR1,NEB,NID1,NID2,NOTCH3,NPHS1,NPPB,PAX3,PAX7,PLD1,POPDC2,PRKCQ,PTGIR,PTK2,PXN,PYGM,SIX1,SIX4,SULF1,TCAP,THBS4,TNNC1,TNNI1,TNNI2,TNNT1,TNNT3,TPM2,TRIO,TTN,WASHC1,WIPF1,Mdk,Rbp1,Nrep,Mylk,Acta2,Myl9,Mdk1,Cdkn1c1</t>
-  </si>
-  <si>
     <t>CD8,CD2,CD3D,CD3E,CD3G,CD3Z,CD45RA,CD62L,CD27,CD127,FOXP3,CCR7,CD45,CD8A,CD8B,CCR6,CD11b,CD30,CD6,CTLA4,IL2RA,GZMB,PTPRC,SELL,CCR7,GNLY,Trac,Ltb,Cd52,Trbc2,Shisa5,Lck,Thy1,Dapl1</t>
   </si>
   <si>
@@ -1229,9 +999,6 @@
     <t>Immune</t>
   </si>
   <si>
-    <t>MSCs</t>
-  </si>
-  <si>
     <t>MCs</t>
   </si>
   <si>
@@ -1322,54 +1089,6 @@
     <t>Cancer</t>
   </si>
   <si>
-    <t>Langerhans</t>
-  </si>
-  <si>
-    <t>Merkel</t>
-  </si>
-  <si>
-    <t>VSMCs</t>
-  </si>
-  <si>
-    <t>SMCs</t>
-  </si>
-  <si>
-    <t>Satellite</t>
-  </si>
-  <si>
-    <t>PASMCs</t>
-  </si>
-  <si>
-    <t>Myoepithelial</t>
-  </si>
-  <si>
-    <t>Myosatellite</t>
-  </si>
-  <si>
-    <t>ASM</t>
-  </si>
-  <si>
-    <t>Tuft</t>
-  </si>
-  <si>
-    <t>Parietal</t>
-  </si>
-  <si>
-    <t>Paneth</t>
-  </si>
-  <si>
-    <t>Microfold</t>
-  </si>
-  <si>
-    <t>Goblet</t>
-  </si>
-  <si>
-    <t>peptic</t>
-  </si>
-  <si>
-    <t>Foveolar</t>
-  </si>
-  <si>
     <t>Principal</t>
   </si>
   <si>
@@ -1442,33 +1161,6 @@
     <t>Epithelial</t>
   </si>
   <si>
-    <t>Embryonic stem</t>
-  </si>
-  <si>
-    <t>Epiblast</t>
-  </si>
-  <si>
-    <t>Germ</t>
-  </si>
-  <si>
-    <t>Trophoblast</t>
-  </si>
-  <si>
-    <t>Trophoblast progenitor</t>
-  </si>
-  <si>
-    <t>Crypt</t>
-  </si>
-  <si>
-    <t>Enteric glia</t>
-  </si>
-  <si>
-    <t>Enterochromaffin</t>
-  </si>
-  <si>
-    <t>Enteroendocrine</t>
-  </si>
-  <si>
     <t>Basal</t>
   </si>
   <si>
@@ -1481,9 +1173,6 @@
     <t>Secretory</t>
   </si>
   <si>
-    <t>MSC</t>
-  </si>
-  <si>
     <t>Naive CD8+ T</t>
   </si>
   <si>
@@ -1509,12 +1198,432 @@
   </si>
   <si>
     <t>I_Monocytes</t>
+  </si>
+  <si>
+    <t>CD27,IgD,CD38,CD24,CD20,MS4A1,PTPRC,PAX5,CD24,CD38,CD79A,JCHAIN,SSR4,FKBP11,SEC11C,DERL3,PRDX4,IGLL5,CD79B,TCL1A,IGLL5,HLA-DQA1,HLA-DQB1,CD138,CD38,VPREB3,IGLL5</t>
+  </si>
+  <si>
+    <t>Adrenal</t>
+  </si>
+  <si>
+    <t>CSH1_CSH2 positive cells</t>
+  </si>
+  <si>
+    <t>CGB,GH2,PSG5,CGA,CSH1,ERVW-1,CSH2,PSG7,PSG11,HSD3B1,PSG9,PSG1,PSG6,PLAC4,PSG4</t>
+  </si>
+  <si>
+    <t>Megakaryocytes</t>
+  </si>
+  <si>
+    <t>C15orf54,GP9,PF4,PPBP,GP1BA,MEGT1,LY6G6F,GP6,ITGA2B,C6orf25,ALOX12,FCER1A,ELOVL7,NRGN,RP11-930O11.1</t>
+  </si>
+  <si>
+    <t>Schwann cells</t>
+  </si>
+  <si>
+    <t>WNT16,MPZ,FOXD3,SOX10,CDH19,GPR17,PMP2,COL20A1,INSC,RP4-792G4.2,TTYH1,SOX2,LAMP5,OLFML2A,ATP1A2</t>
+  </si>
+  <si>
+    <t>Myeloid cells</t>
+  </si>
+  <si>
+    <t>MS4A14,LILRA1,RP11-554D14.6,AC007040.8,MS4A7,RP11-489O18.1,CLEC10A,MS4A4A,RN7SL138P,CD163,CD14,SIGLEC1,VSIG4,CLEC7A,LILRA2</t>
+  </si>
+  <si>
+    <t>Sympathoblasts</t>
+  </si>
+  <si>
+    <t>NPAS4,SLC24A2,RP11-542G1.2,PENK,LINC00890,KLK4,RP11-17A4.2,RP5-1096J16.1,C18orf42,TTC40,ARC,FAM19A3,VWA5B1,PPP1R17,RP4-718N17.2</t>
+  </si>
+  <si>
+    <t>Erythroblasts</t>
+  </si>
+  <si>
+    <t>TPSAB1,CTD-2008P7.9,RP11-85G21.3,CTSE,CTA-392E5.1,EIF5AP2,CTA-363E6.6,C17orf99,SLC4A1,TRIM10,MIR144,ART4,AHSP,GYPA,HBM</t>
+  </si>
+  <si>
+    <t>Stromal cells</t>
+  </si>
+  <si>
+    <t>MIR1245A,NPY5R,RP11-60A8.1,RP11-254F19.2,RP11-494K3.2,RP11-758M4.4,RP11-142A23.1,RP11-752L20.5,OSR1,RP11-867G23.13,SULT1E1,HHIP,MGP,PRELP,TWIST2</t>
+  </si>
+  <si>
+    <t>Vascular endothelial cells</t>
+  </si>
+  <si>
+    <t>CCL23,FGF23,SMIM9,RP13-1016M1.2,RP11-100L22.1,RP11-327L3.3,RP1-149A16.12,GPR182,DLL4,GALNT15,CALCRL,CD300LG,FLT4,FCN3,GPIHBP1</t>
+  </si>
+  <si>
+    <t>Chromaffin cells</t>
+  </si>
+  <si>
+    <t>NRG1-IT3,RNU6-457P,LINC00594,AC018643.4,RP11-159N11.3,CTC-537E7.1,Y_RNA,snoU13,CTD-2006K23.2,RP5-955M13.4,INSRR,KCNK10,PHEX-AS1,RP11-958J22.1,FLJ30594</t>
+  </si>
+  <si>
+    <t>Lymphoid cells</t>
+  </si>
+  <si>
+    <t>GZMH,XCL1,KLRC3,RP11-94L15.2,GZMA,IL2RB,TRAT1,SH2D1A,DTHD1,CD3E,ZNF831,GNLY,PRF1,IGHD,THEMIS</t>
+  </si>
+  <si>
+    <t>Adrenocortical cells</t>
+  </si>
+  <si>
+    <t>RP1-145M24.1,RP11-238I10.1,AC005392.13,RP11-316I3.2,RP11-501O2.4,SDIM1,RP11-258O13.1,AJ006998.2,CTD-2517O10.5,RNU6-944P,CTB-43E15.4,RP11-34F13.3,RP11-536K7.5,RP11-183M13.1,RNU6-56P</t>
+  </si>
+  <si>
+    <t>SLC26A4_PAEP positive cells</t>
+  </si>
+  <si>
+    <t>IL1A,SLC26A4,SNX25P1,VMO1,CTD-2210P15.2,CTC-360P9.4,ULK4P1,SNORA14A,RNU6-518P,RP11-431N15.2,RP11-26J3.3,RP11-378A12.1,SPINK8,HSD3B2,KIRREL-IT1</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>MEGT1,LY6G6F,TUBB1,PPBP,PF4,GP9,TPSB2,HBD,AC137932.6,ITGA2B,GP1BA,CLEC1B,PTCRA,BEND2,RP11-179A10.1</t>
+  </si>
+  <si>
+    <t>Epicardial fat cells</t>
+  </si>
+  <si>
+    <t>RP11-89M22.3,CTD-3012A18.1,PRG4,KRT7,SPRR2F,KLK11,MKRN9P,UPK1B,EPGN,NPHS1,ITLN1,LRRN4,CST6,GSDMA,RAET1E</t>
+  </si>
+  <si>
+    <t>Lymphatic endothelial cells</t>
+  </si>
+  <si>
+    <t>GPR182,GPR97,STAB2,HOXD9,TBX1,CCL21,HOXD10,TSPEAR,ABCA4,PGM5-AS1,TFF3,LINC00636,RP11-341G23.4,HOXD4,RP11-451M19.3</t>
+  </si>
+  <si>
+    <t>GFRA3,SOX10,MPZ,LINC00466,COL20A1,MIA,ASPA,ERBB3,TFAP2A,INSC,ARTN,PMP2,S100B,FOXD3,AP000797.3</t>
+  </si>
+  <si>
+    <t>GZMB,FCRL2,KLRC2,XCL1,LINC00861,PRF1,CD3G,SH2D1B,ANTXRLP1,VPREB3,SH2D1A,CRTAM,CXCR6,RP11-94L15.2,GZMK</t>
+  </si>
+  <si>
+    <t>XCR1,TMPRSS4-AS1,TIMD4,PRTN3,MMP9,CD86,CLEC5A,SIGLEC1,CLEC7A,C1QC,P2RY13,FCN1,CSTA,CD300LF,MS4A6A</t>
+  </si>
+  <si>
+    <t>Endocardial cells</t>
+  </si>
+  <si>
+    <t>ANGPTL5,APCDD1L,NPPC,SLC6A4,SALL1,LEPR,C3orf36,AC004562.1,FAM3D,HAPLN1,APCDD1,LYPD2,FOXC1,MPZL2,RP11-849I19.1</t>
+  </si>
+  <si>
+    <t>ESM1,SLC9C1,OPN5,QRFPR,MIR4454,AC007743.1,PKD1L1,TM4SF18,APLNR,CLRN1-AS1,CD300LG,C1QTNF9,AC019100.3,MADCAM1,RP11-298O21.5</t>
+  </si>
+  <si>
+    <t>RP11-60A8.1,SCARA5,DPT,CILP,ZCCHC5,AGTR2,MFAP5,RP11-71N10.1,LUM,ABCA10,RP11-31K23.2,CCL11,NRK,PDGFRA,LPAR4</t>
+  </si>
+  <si>
+    <t>PDE4C,RP11-112H10.4,RP11-598F7.5,RP11-626H12.1,HCG22,CTD-3064M3.3,RP11-231I13.2,GPR20,RP11-267N12.1,OR51E1,THBS4,MIR143HG,PDGFRB,AOC3,ENPEP</t>
+  </si>
+  <si>
+    <t>SATB2_LRRC7 positive cells</t>
+  </si>
+  <si>
+    <t>NEUROD2,FEZF2,NEUROD6,TBR1,MPPED1,SATB2,FOXG1,PCDH11Y,CAMKV,BHLHE22,SLIT1,C14orf23,RP11-562L8.1,LINC00966,DRAXIN</t>
+  </si>
+  <si>
+    <t>RP5-857K21.7,CENPW,SLC46A1,GSPT2,RHCE,SLC7A11,P2RX6,SKA1,FARSA,ZNF90,TMCC2,RP11-225B17.2,TMEM161A,ZNF583,ENPP4</t>
+  </si>
+  <si>
+    <t>Visceral neurons</t>
+  </si>
+  <si>
+    <t>GATA3-AS1,GAL,CHRNA3,PRPH,PHOX2A,GALR1,NXPH1,TMC3,DDC,SST,OPRM1,PIRT,NECAB2,ECEL1,SLC10A4</t>
+  </si>
+  <si>
+    <t>RP11-439H8.4,RNA5SP327,CTD-2552K11.2,Y_RNA,AC018464.3,HHATL,BMP10,RP11-461A8.4,UGT2B4,PRSS42,WI2-1896O14.1,FABP2,EPN3,RP11-406O23.2,AC009878.2</t>
+  </si>
+  <si>
+    <t>ELF3_AGBL2 positive cells</t>
+  </si>
+  <si>
+    <t>C1orf194,ZMYND10,MS4A8,IL20RA,ELF3,SCGB3A2,EFCAB1,SFTPB,WDR65,CP,PIH1D2,AGBL2,SFTPC,DNAH9,MUC1</t>
+  </si>
+  <si>
+    <t>CLC_IL5RA positive cells</t>
+  </si>
+  <si>
+    <t>FAM209A,CERKL,CLC,PRG2,MS4A3,IL5RA,ZC2HC1C,CTD-2620I22.1,CTD-3032H12.2,RP11-252E2.1,AC011524.1,S100A1,Y_RNA,LINC00407,RP11-516C1.1</t>
+  </si>
+  <si>
+    <t>Intestine</t>
+  </si>
+  <si>
+    <t>AHSP,SPTA1,HBG2,HBA2,HBM,HBG1,HBA1,SLC4A1,HBB,GYPA,HEMGN,HBZ,ALAS2,MIR144,MYL4</t>
+  </si>
+  <si>
+    <t>ARX,NKX2-2,CCK,CRYBA2,NEUROD1,FEV,MLN,ASIC5,ONECUT3,SST,RP11-788H18.1,PAX4,KCNH6,SSTR5,PCSK1</t>
+  </si>
+  <si>
+    <t>ACTG2,GREM2,CNN1,RP11-467I20.6,WIF1,TACR2,OVCH2,FRMD6-AS2,DES,MYH11,RP11-626H12.1,ANO1,CHRDL2,TAGLN,FBXL22</t>
+  </si>
+  <si>
+    <t>VSIG4,RPL32P1,CD207,AP000439.1,HCAR3,C5orf20,AC010492.4,P2RY13,LILRB2,LILRB5,IL1B,C1QB,CD163,C1QC,DNASE1L3</t>
+  </si>
+  <si>
+    <t>IL17A,ICOS,SH2D1A,GZMK,RP11-553L6.2,TRGC1,RP11-104L21.3,TRDC,GZMA,VPREB1,CCR4,LTA,NCR2,CD247,RP11-94L15.2</t>
+  </si>
+  <si>
+    <t>Intestinal epithelial cells</t>
+  </si>
+  <si>
+    <t>UNC5CL,C1orf177,TRIM31,LINC00955,RP3-417L20.4,HMGN1P20,ALPI,RP11-395B7.2,EGFR-AS1,RP11-462G2.1,DEFB1,CA7,RP11-468N14.13,ARL14,AC024592.9</t>
+  </si>
+  <si>
+    <t>ENS glia</t>
+  </si>
+  <si>
+    <t>SERPINA3,RLBP1,GPR12,RP4-792G4.2,CDH19,COL20A1,SOX10,PLP1,SOX2,FOXD3,MPZ,BCAN,TFAP2A,SOX2-OT,PTPRZ1</t>
+  </si>
+  <si>
+    <t>ENS neurons</t>
+  </si>
+  <si>
+    <t>PDIA2,RP11-672L10.2,GRP,DRGX,GCGR,SLC18A3,PHOX2A,HECW1-IT1,RP11-202H2.1,IQCJ,STMN4,TTC9B,GAL,CEND1,NEFL</t>
+  </si>
+  <si>
+    <t>SOX17,GPIHBP1,PRND,CLEC3B,FLT1,MMRN2,BTNL9,APLNR,LHX6,NOTCH4,RP11-3K16.2,ESAM,RP11-328D5.1,ESM1,GJA5</t>
+  </si>
+  <si>
+    <t>RP11-13P5.2,MSC,RP1-283K11.3,RP5-1077H22.1,CTD-2541J13.1,AC002511.2,AC002511.3,MMP27,CTD-2334D19.1,CXCL14,FZD10,PDGFRA,AC003090.1,RP1-288H2.4,ITGA11</t>
+  </si>
+  <si>
+    <t>AP000705.7,HAS1,TNNT1,BNC1,DSC3,WT1,WNT10A,C21orf62,PTPRQ,CEMP1,C3,CRB2,KLK11,PHYHIP,TGM1</t>
+  </si>
+  <si>
+    <t>RP11-474N8.5,TBX1,STAB2,CCL21,LINC00636,TSPEAR,ART5,CTC-236F12.4,GPR1,RP11-322E11.5,MPP7,Y_RNA,ABCA4,PLIN5,TP63</t>
+  </si>
+  <si>
+    <t>PF4,ITGA2B,LIPH,ELOVL7,GP6,ITGB3,PTGS1,RP11-480G7.1,RP11-170N16.2,C3orf55,RP4-655J12.4,TUBB1,DCLRE1A,TMEM40,GNAZ</t>
+  </si>
+  <si>
+    <t>UGT8,POU3F1,PMP2,GFRA3,KCNC2,MPZ,SOX10,PTPRZ1,COL20A1,LINC01037,BCAN,C2orf72,C10orf82,RP11-946L20.2,MAG</t>
+  </si>
+  <si>
+    <t>NTS,TFF3,CCL21,STAB2,PTX3,PCLO,IL7,P4HA3,C6orf141,PIK3C2G,ASGR2,ANKRD36BP2,NALCN,FAM26F,NHLRC1</t>
+  </si>
+  <si>
+    <t>RHAG,GYPA,AHSP,GYPB,HBZ,ALAS2,SLC4A1,SLC14A1,EIF5AP2,HBM,HBA1,EPB42,RP11-57H12.2,ALS2CR12,SLC25A37</t>
+  </si>
+  <si>
+    <t>Skeletal muscle cells</t>
+  </si>
+  <si>
+    <t>RP11-755O11.2,ASB15,RP11-456H18.2,RPL7P3,PVALB,RN7SL365P,RP11-432J24.5,C8orf22,ASB10,RP5-921G16.2,CLDN9,RP5-1039K5.13,AC137723.5,RP11-255G21.1,AC093063.2</t>
+  </si>
+  <si>
+    <t>WSCD2,C13orf45,LINC00645,RP1-300G12.2,RP11-217C7.1,RP11-332E3.2,RP11-473E2.4,CTD-2555C10.3,RP11-342A23.1,WNT10B,ACKR4,DIO3,CCDC129,ZCCHC5,RP11-38H17.1</t>
+  </si>
+  <si>
+    <t>AC004014.3,MYEOV,TACR3,GDPD4,USP44,RGR,RP11-320P7.2,FAM132B,GPR123,CTB-175P5.4,ENPP7P10,CHRDL2,PAX7,RP11-706J10.1,MAPK15</t>
+  </si>
+  <si>
+    <t>MIR4454,SLC5A4,AL118508.1,CA4,RP11-206M11.7,PRSS51,NOS3,GRIN2A,GFRAL,CD300LG,MADCAM1,RP11-327L3.3,C1QTNF9,ANO2,AP001597.1</t>
+  </si>
+  <si>
+    <t>OR51E2,AC131025.8,ADORA2B,MYH11,SLC38A11,MIR143HG,MIR145,RP11-1101K5.1,P2RX3,GPR176,ANO1,OR51E1,CORIN,CACNA1C-IT3,TMC4</t>
+  </si>
+  <si>
+    <t>FCN1,MS4A4E,TMPRSS4-AS1,CD86,FLT3,P2RY13,IL10RA,FOLR2,MNDA,HLA-DQB1,MS4A4A,AMICA1,CYTH4,MS4A6A,CFP</t>
+  </si>
+  <si>
+    <t>IL7R,CD8A,NKG7,CD247,NCR1,RP11-61O1.1,TRAC,CD3E,ITK,CD2,MATK,RP11-444A22.1,SYTL1,IL2RB,GZMA</t>
+  </si>
+  <si>
+    <t>Placenta</t>
+  </si>
+  <si>
+    <t>PAEP_MECOM positive cells</t>
+  </si>
+  <si>
+    <t>RP11-98L5.2,AC104654.1,PAEP,RP11-274B18.4,PIGR,TSPAN1,AC012593.1,RP11-510D19.1,POU5F1,UGT2B7,DEFB1,RP11-697E22.2,SLC18A2,PAX8,SLPI</t>
+  </si>
+  <si>
+    <t>AFP_ALB positive cells</t>
+  </si>
+  <si>
+    <t>SLC2A2,ALB,APOB,AFP,ITIH2,F2,MAT1A,APOC3,SERPINC1,FABP1,APOA2,AHSG,SERPINA10,SLC38A3,SERPINA4</t>
+  </si>
+  <si>
+    <t>Extravillous trophoblasts</t>
+  </si>
+  <si>
+    <t>AC022596.6,GKN1,CILP2,LINC00330,PDE6H,PRG2,RP11-872D17.8,HLA-G,ASCL2,NOTUM,AC006262.5,DAW1,NOG,TAC3,RP11-420L9.4</t>
+  </si>
+  <si>
+    <t>IGJ,IGHM,KLRC3,GZMH,PTGDR,IGHGP,IKZF3,IFNG-AS1,TIGIT,KLRC2,LCK,ANKRD36BP2,TNFRSF18,IGHG3,LINC00861</t>
+  </si>
+  <si>
+    <t>Trophoblast giant cells</t>
+  </si>
+  <si>
+    <t>CCK,CTA-833B7.2,PSG1,CGB,CSH2,PSG6,KISS1,INHBA,GH2,PSG9,CRH,PSG8,RP11-76E12.1,PSG4,TREML3P</t>
+  </si>
+  <si>
+    <t>RP11-162G9.1,FAM162B,WNT3A,AFF2,CDH19,SCN11A,GPR20,COX4I2,AGTR1,ADAMTS20,RP11-123O22.1,HIGD1B,AC020571.3,COLEC10,KCNK17</t>
+  </si>
+  <si>
+    <t>IGFBP1_DKK1 positive cells</t>
+  </si>
+  <si>
+    <t>RP3-404K8.2,RP11-486P11.1,FOXL2,WT1,RP11-171A24.3,SCARA5,LRRN4CL,S100A3,WT1-AS,PRL,WNT4,AC012065.7,APOD,BRINP2,RORB</t>
+  </si>
+  <si>
+    <t>AP006285.6,AC002451.1,RP11-99L13.2,RP1-79C4.4,MMP23B,RP11-248N22.2,LA16c-380H5.4,MIR218-1,C8orf87,SNORD113,RP11-74M11.2,HSD3BP2,AP001605.4,LINC00314,AC007394.3</t>
+  </si>
+  <si>
+    <t>RP11-1028N23.4,RP11-297H3.3,AC007743.1,RP11-327L3.3,CD34,ARHGEF15,CXorf36,LRRC36,SOX7,RP11-328D5.1,NTS,CDRT1,LINC01049,ROBO4,HS3ST3A1</t>
+  </si>
+  <si>
+    <t>Syncytiotrophoblasts and villous cytotrophoblasts</t>
+  </si>
+  <si>
+    <t>CTD-2050E21.1,POTEKP,RP11-344B2.3,RP11-366M4.3,RP11-2A4.4,RP11-483F11.7,FTLP14,RP11-718G2.5,RP11-18D7.3,CLCA2,KB-1440D3.13,CTBP2P8,RP11-359P18.1,HSPD1P6,AC124861.1</t>
+  </si>
+  <si>
+    <t>SIGLEC10,RP11-1143G9.4,LYZ,ADAMDEC1,LILRB2,HLA-DRB5,SDS,HLA-DOA,SIGLEC1,MMP9,LILRB4,C1QB,TLR2,TLR7,S100A8</t>
+  </si>
+  <si>
+    <t>EGF,TUBB1,PPBP,ITGA2B,RP11-930O11.1,RP11-152K4.2,LINC00989,PF4,C6orf25,LINC00534,PKHD1L1,NRGN,DNM3,RP11-466L17.1,RP11-142C4.6</t>
+  </si>
+  <si>
+    <t>Spleen</t>
+  </si>
+  <si>
+    <t>SERPINA6,PLG,AMBP,SERPINC1,BHMT2,LBP,PRAP1,APOB,SERPINA1,FGB,VTN,SLC2A2,FGG,MT1G,ITIH1</t>
+  </si>
+  <si>
+    <t>RN7SL337P,KLRC4-KLRK1,RP11-553L6.2,RP11-861A13.4,RP11-38J22.6,ZNF860,RP11-693J15.5,RP11-61O1.1,FCRL3,CTD-2215E18.1,RP5-1028K7.2,IKZF3,LINC00861,IL9RP3,VAV3-AS1</t>
+  </si>
+  <si>
+    <t>CLEC9A,RP11-489O18.1,RP3-522P13.3,RP11-807H22.7,RP11-1080G15.1,FCN1,EMR4P,TMPRSS4-AS1,RP11-157G21.2,CSF2RA,OSCAR,RP3-522D1.1,CD163L1,RUFY4,DLEU7-AS1</t>
+  </si>
+  <si>
+    <t>RP11-189E14.5,ODF3L2,RP4-765C7.2,AC019100.3,RP11-172F10.1,CTD-2207L17.2,RP1-154K9.2,AC010084.1,SLC5A4,OR5G5P,HOXD3,SNTG1,EEF1A1P31,ADAMTSL1,MYRIP</t>
+  </si>
+  <si>
+    <t>CTD-2270F17.1,ENPP7P4,AC105053.3,RP11-388K12.1,SCTR,KBTBD11-OT1,ADRA1B,NPM1P10,NPY5R,TPH2,CTC-535M15.2,MIR143HG,KLHL29,AC023481.1,CADPS</t>
+  </si>
+  <si>
+    <t>STC2_TLX1 positive cells</t>
+  </si>
+  <si>
+    <t>CAMK2N2,CLVS2,RP11-384O8.1,FBXL16,GABRG2,HRK,EBF3,TRH,AC018730.1,CTD-3193O13.9,CPLX2,ATP1A3,TMEM119,IFI27L2,PET117</t>
+  </si>
+  <si>
+    <t>RAB27B,RP11-556I14.2,EGF,GP6,RP11-930O11.1,LINC00989,SELP,GP1BA,HPSE,RP11-152K4.2,LINC00504,MMRN1,ITGB3,ELOVL7,LY6G6F</t>
+  </si>
+  <si>
+    <t>QRFPR,SLPI,LHX9,PLA2G2A,CGN,NPHS1,KRT5,LRRN4,KLK11,OLR1,PTPRQ,COL8A1,PDZK1IP1,HAS1,SFRP2</t>
+  </si>
+  <si>
+    <t>HDC,PRSS57,EIF5AP2,PPAPDC1A,MTL5,CTA-392E5.1,ACSBG1,RP5-964N17.1,GYPA,SLC25A21,RP11-146I2.1,MIR144,SLC2A14,CTA-363E6.6,SLC4A1</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Neuroendocrine cells</t>
+  </si>
+  <si>
+    <t>SLC18A1,GHRL,GAST,FEV,NKX2-2,CRYBA2,MBOAT4,CDK5R2,RFX6,HAP1,RP11-82C23.2,RBPJL,PTF1A,PAX6,CACNA1A</t>
+  </si>
+  <si>
+    <t>KLF1,SLC4A1,HBM,NFE2,HBZ,GYPB,HBG2,HBB,ALAS2,SPTA1,HBA1,HEMGN,RNF224,HBG1,HBA2</t>
+  </si>
+  <si>
+    <t>Ciliated epithelial cells</t>
+  </si>
+  <si>
+    <t>CCDC37,C11orf88,FAM216B,LDLRAD1,TUBA4B,KIF19,DYDC2,ANKRD66,C9orf117,C10orf67,AC013264.2,LRRC71,CAPSL,TSPAN19,STOML3</t>
+  </si>
+  <si>
+    <t>Squamous epithelial cells</t>
+  </si>
+  <si>
+    <t>KRT6B,CAPNS2,KRT6C,FGFBP1,KRT6A,KRT17,ADH7,SERPINB10,KRT16,S100A3,CLCA2,LY6D,KRT4,AC019349.5,GPR87</t>
+  </si>
+  <si>
+    <t>Parietal and chief cells</t>
+  </si>
+  <si>
+    <t>RP11-467I20.6,ETNPPL,ATP4B,FGB,FGA,SIGLEC11,FRMD1,TRIM50,ALB,ATP4A,ANGPTL3,MFSD4,APOBEC2,CKM,PAQR5</t>
+  </si>
+  <si>
+    <t>MUC13_DMBT1 positive cells</t>
+  </si>
+  <si>
+    <t>ISX,GUCA2B,ENPP7,MIR194-2,BTNL3,TM4SF20,SI,SLC17A4,ALDOB,CDX1,DMBT1,CHP2,KRT20,SLC5A12,ADRA2A</t>
+  </si>
+  <si>
+    <t>C1QC,HLA-DQB1,MS4A6A,CD14,C1QB,CD163L1,IGSF6,CCDC26,C1QA,NCF2,HLA-DRB1,HLA-DRB5,CLEC7A,MS4A7,HLA-DPA1</t>
+  </si>
+  <si>
+    <t>UGT2B15,IL17C,GKN2,SLC22A8,CXCL5,CSF3,TFF2,A4GNT,FBP2,FGF20,MUC6,GKN1,CXCL1,MUC5AC,CA9</t>
+  </si>
+  <si>
+    <t>AC002511.2,PTGER1,OSR2,AC003090.1,ACTG2,INHBA,HSPB6,AC131025.8,SHISA3,DPT,TRPA1,ACTA2,TWIST2,CXCL14,GLIS1</t>
+  </si>
+  <si>
+    <t>PRPH,STMN2,ATP1A3,KCNIP4,NKAIN1,INA,GAP43,ATCAY,CNGB1,TCEAL5,STAC,DCX,RP11-457K10.1,FAM163A,CNTN5</t>
+  </si>
+  <si>
+    <t>SOX10,MPZ,ATP1A2,BAI1,PLP1,CDH19,COL20A1,ELOVL2,NOV,PRIMA1,RP11-308N19.1,SLC35F1,LGI4,VGLL3,EGFLAM</t>
+  </si>
+  <si>
+    <t>SELE,PRND,APLNR,ARHGEF15,PLVAP,FLT1,PCDH12,MADCAM1,GPIHBP1,GALNT15,RP4-601K24.1,MEOX1,A2M,CCM2L,CLEC14A</t>
+  </si>
+  <si>
+    <t>NTS,STAB2,CCL21,RADIL,RP11-444A22.1,TFPI,RP11-142C4.6,TNFAIP8L3,LY86-AS1,PTGS2,RP11-554D15.1,EFCC1,MMRN1,Y_RNA,NFATC1</t>
+  </si>
+  <si>
+    <t>RP11-74M11.2,AP000705.7,BNC1,SPHKAP,PTPRQ,NPHS1,TNNT1,TFPI2,BDNF,PDZRN4,LRP2,GFPT2,HAS1,WT1,COL8A1</t>
+  </si>
+  <si>
+    <t>ICOS,CD27,NKG7,CD28,CD3D,CHI3L2,TRAT1,THEMIS,CD52,KLRB1,CD79B,CCL5,TRBC2,SIRPG,CD3E</t>
+  </si>
+  <si>
+    <t>PDE1C_ACSM3 positive cells</t>
+  </si>
+  <si>
+    <t>RP11-690G19.4,ACSM3,C1orf95,KCNE4,PDE1C,PSEN2,ERBB4,ATP6V0A4,TFCP2L1,WNK3,GABRB2,ADARB2,AMACR,SHISA2,NOX4</t>
+  </si>
+  <si>
+    <t>Thymus</t>
+  </si>
+  <si>
+    <t>Thymic epithelial cells</t>
+  </si>
+  <si>
+    <t>RP11-81F13.2,KCNJ5,RP11-153K16.1,RP11-81F13.1,LL22NC03-75H12.2,RP11-112J1.2,RP11-114G22.1,RP6-24A23.6,C11orf16,SLC46A2,CACNA1I,PTPRT,NPFFR2,RP1-223B1.1,C12orf56</t>
+  </si>
+  <si>
+    <t>PLAC9,LOX,MGP,COL1A2,COL5A3,COL1A1,ASPN,FGF18,MMP2,ISLR,DCN,SFRP2,COL3A1,SCARA5,COL6A6</t>
+  </si>
+  <si>
+    <t>Antigen presenting cells</t>
+  </si>
+  <si>
+    <t>IL1RN,EBI3,FGD2,MCOLN2,MMP9,TLR10,LINC00996,CD80,CXCL10,SLAMF7,P2RY13,SLC24A4,HCK,C1QB,LYZ</t>
+  </si>
+  <si>
+    <t>ADAMTS9,PROX1,MET,AC011526.1,MEOX2,ANO2,CTD-3179P9.1,NOVA2,AOC3,CXorf36,GPR116,PODXL,NRN1,PTPRB,LINC00472</t>
+  </si>
+  <si>
+    <t>Thymocytes</t>
+  </si>
+  <si>
+    <t>RP11-104L21.3,BEST3,HKDC1,KLRC4-KLRK1,RP11-305P22.9,LTA,TMSB15B,RP11-739G5.1,UBASH3A,PLK4,FBXO41,LIN28B,SKA3,CD40LG,AC002454.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,23 +2011,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.68359375" customWidth="1"/>
+    <col min="4" max="4" width="27.1015625" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,10 +2041,10 @@
         <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -1943,14 +2052,14 @@
         <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1958,14 +2067,14 @@
         <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
@@ -1973,14 +2082,14 @@
         <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -1988,14 +2097,14 @@
         <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2003,16 +2112,16 @@
         <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2020,16 +2129,16 @@
         <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2037,16 +2146,16 @@
         <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -2054,14 +2163,14 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -2069,14 +2178,14 @@
         <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
@@ -2084,16 +2193,16 @@
         <v>204</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -2101,33 +2210,33 @@
         <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
@@ -2142,7 +2251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -2150,14 +2259,14 @@
         <v>206</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -2165,14 +2274,14 @@
         <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
@@ -2180,16 +2289,16 @@
         <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
@@ -2197,14 +2306,14 @@
         <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
@@ -2212,14 +2321,14 @@
         <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2227,14 +2336,14 @@
         <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2242,14 +2351,14 @@
         <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -2257,16 +2366,16 @@
         <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -2274,16 +2383,16 @@
         <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -2291,16 +2400,16 @@
         <v>194</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -2308,16 +2417,16 @@
         <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -2329,10 +2438,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
@@ -2344,10 +2453,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -2355,14 +2464,14 @@
         <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -2370,16 +2479,16 @@
         <v>198</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -2391,10 +2500,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2406,10 +2515,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -2421,10 +2530,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2432,29 +2541,29 @@
         <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2466,10 +2575,10 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -2481,10 +2590,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
@@ -2496,10 +2605,10 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
@@ -2511,10 +2620,10 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>71</v>
       </c>
@@ -2526,10 +2635,10 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2541,10 +2650,10 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -2556,10 +2665,10 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -2571,10 +2680,10 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>71</v>
       </c>
@@ -2582,14 +2691,14 @@
         <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
@@ -2601,10 +2710,10 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
@@ -2616,10 +2725,10 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
@@ -2631,10 +2740,10 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>71</v>
       </c>
@@ -2646,10 +2755,10 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>71</v>
       </c>
@@ -2661,10 +2770,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -2679,7 +2788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -2706,10 +2815,10 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2721,10 +2830,10 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -2739,7 +2848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -2754,7 +2863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -2762,14 +2871,14 @@
         <v>21</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -2781,10 +2890,10 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2796,10 +2905,10 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -2811,10 +2920,10 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
@@ -2829,7 +2938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
@@ -2837,14 +2946,14 @@
         <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>109</v>
       </c>
@@ -2856,10 +2965,10 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>109</v>
       </c>
@@ -2874,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
@@ -2886,10 +2995,10 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
@@ -2901,10 +3010,10 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>109</v>
       </c>
@@ -2916,10 +3025,10 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>109</v>
       </c>
@@ -2931,10 +3040,10 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>109</v>
       </c>
@@ -2946,10 +3055,10 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>109</v>
       </c>
@@ -2957,14 +3066,14 @@
         <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>109</v>
       </c>
@@ -2972,14 +3081,14 @@
         <v>124</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>109</v>
       </c>
@@ -2991,10 +3100,10 @@
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>109</v>
       </c>
@@ -3006,10 +3115,10 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>109</v>
       </c>
@@ -3024,7 +3133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>109</v>
       </c>
@@ -3036,10 +3145,10 @@
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
@@ -3051,10 +3160,10 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>109</v>
       </c>
@@ -3062,14 +3171,14 @@
         <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>109</v>
       </c>
@@ -3084,7 +3193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>109</v>
       </c>
@@ -3099,7 +3208,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
         <v>109</v>
       </c>
@@ -3114,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>109</v>
       </c>
@@ -3126,10 +3235,10 @@
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>109</v>
       </c>
@@ -3141,10 +3250,10 @@
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>109</v>
       </c>
@@ -3156,10 +3265,10 @@
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
         <v>109</v>
       </c>
@@ -3171,10 +3280,10 @@
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
@@ -3186,10 +3295,10 @@
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>150</v>
       </c>
@@ -3201,10 +3310,10 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
         <v>150</v>
       </c>
@@ -3212,14 +3321,14 @@
         <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
         <v>150</v>
       </c>
@@ -3231,10 +3340,10 @@
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -3246,10 +3355,10 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
         <v>150</v>
       </c>
@@ -3261,10 +3370,10 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
         <v>150</v>
       </c>
@@ -3279,7 +3388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -3294,7 +3403,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
         <v>150</v>
       </c>
@@ -3306,10 +3415,10 @@
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
         <v>150</v>
       </c>
@@ -3321,10 +3430,10 @@
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>150</v>
       </c>
@@ -3336,10 +3445,10 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
         <v>150</v>
       </c>
@@ -3351,10 +3460,10 @@
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
         <v>150</v>
       </c>
@@ -3369,7 +3478,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
         <v>150</v>
       </c>
@@ -3381,10 +3490,10 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4" t="s">
         <v>150</v>
       </c>
@@ -3396,10 +3505,10 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
         <v>150</v>
       </c>
@@ -3411,10 +3520,10 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
         <v>150</v>
       </c>
@@ -3426,10 +3535,10 @@
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
         <v>150</v>
       </c>
@@ -3441,10 +3550,10 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
         <v>150</v>
       </c>
@@ -3456,10 +3565,10 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>150</v>
       </c>
@@ -3471,10 +3580,10 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
         <v>150</v>
       </c>
@@ -3486,10 +3595,10 @@
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -3501,10 +3610,10 @@
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -3549,7 +3658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -3594,7 +3703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -3609,7 +3718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -3617,14 +3726,14 @@
         <v>21</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -3651,10 +3760,10 @@
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -3666,10 +3775,10 @@
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -3681,10 +3790,10 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -3696,10 +3805,10 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -3726,10 +3835,10 @@
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -3741,10 +3850,10 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -3756,10 +3865,10 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -3786,10 +3895,10 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -3801,10 +3910,10 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -3834,967 +3943,1562 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C180" s="4" t="s">
+      <c r="C221" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C182" s="4" t="s">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B184" s="4" t="s">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B185" s="4" t="s">
+      <c r="C239" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C186" s="4" t="s">
+      <c r="C241" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4" t="s">
-        <v>427</v>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAB393E-A7C0-40BD-B780-93BBA39E5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="581">
   <si>
     <t>tissueType</t>
   </si>
@@ -1618,13 +1617,166 @@
   </si>
   <si>
     <t>RP11-104L21.3,BEST3,HKDC1,KLRC4-KLRK1,RP11-305P22.9,LTA,TMSB15B,RP11-739G5.1,UBASH3A,PLK4,FBXO41,LIN28B,SKA3,CD40LG,AC002454.1</t>
+  </si>
+  <si>
+    <t>(Pro-) Subiculum</t>
+  </si>
+  <si>
+    <t>Activated Microglia</t>
+  </si>
+  <si>
+    <t>Agt Astrocytes</t>
+  </si>
+  <si>
+    <t>CA1-dorsal Principal</t>
+  </si>
+  <si>
+    <t>CA1-ventr Principal</t>
+  </si>
+  <si>
+    <t>CA2 Principal</t>
+  </si>
+  <si>
+    <t>CA3-dorsal Principal</t>
+  </si>
+  <si>
+    <t>CA3-ventr Principal</t>
+  </si>
+  <si>
+    <t>Cajal-Retzius</t>
+  </si>
+  <si>
+    <t>Choroid plexus</t>
+  </si>
+  <si>
+    <t>Dentate Hilum (CA4)</t>
+  </si>
+  <si>
+    <t>Ependymal</t>
+  </si>
+  <si>
+    <t>Fibroblast-like</t>
+  </si>
+  <si>
+    <t>Gfap++ Astrocytes</t>
+  </si>
+  <si>
+    <t>Immature Granule Cells (DG)</t>
+  </si>
+  <si>
+    <t>GABA</t>
+  </si>
+  <si>
+    <t>Mature Granule Cells (DG)</t>
+  </si>
+  <si>
+    <t>Neurogenesis</t>
+  </si>
+  <si>
+    <t>Polydendrocytes</t>
+  </si>
+  <si>
+    <t>Resident Microglia</t>
+  </si>
+  <si>
+    <t>Smooth Muscle</t>
+  </si>
+  <si>
+    <t>Unc13c Astrocytes</t>
+  </si>
+  <si>
+    <t>VGLUT2 Neurons</t>
+  </si>
+  <si>
+    <t>Hippocampus</t>
+  </si>
+  <si>
+    <t>LIPM,NPSR1,RAB38,FN1,KLHL1,ADAMTS2,NTS,STAC,TLE4,RXFP1</t>
+  </si>
+  <si>
+    <t>DOCK8,FYB,CSF3R,IKZF1,TMEM119,CCL4,ADAP2,OLFML3,RUNX1,SELPLG,DOCK2,FYB,SLCO2B1,ABCA9,RASGRP3,CX3CR1,LAIR1,UNC93B1,LAPTM5,CD53,P2RY12,ENTPD1,ITGB5,LY86,APBB1IP,HPGDS,ARHGAP22,CSF1R,P3H2,FCGR3,B4GALT1,ITGA9</t>
+  </si>
+  <si>
+    <t>FAM20A,EZR,CMTM5,BMPR1B,SDC4,SOX9,ACSBG1,MLC1,S100A1,F3,PRDM16,AQP4,ID4,HSD11B1,SLC6A11,RORB,ACOT11,GLI3,AGT,SLC39A12,ACSBG1</t>
+  </si>
+  <si>
+    <t>FAM20A,EZR,BMPR1B,SOX9,ACSBG1,F3,PRDM16,AQP4,ID4,SLC6A11,RORB,ACOT11,GLI3,SLC39A12,ACSBG1</t>
+  </si>
+  <si>
+    <t>RGS14,SYT1,GRIN2A,GREM1,EGFL6,STRIP2,SLC9A2,LEFTY1,NPR3,GM10754,KLK8,WFS1,FIBCD1,LEFTY1,STAC,FIBCD1,HTR1B,SPINK8,STAC,SATB2,C1QL3</t>
+  </si>
+  <si>
+    <t>RGS14,SYT1,GRIN2A,FIBCD1,DCN,DIO3,APELA,DLK1,ARHGAP36,LEFTY1,GPR101,GPC3,SATB2,C1QL3</t>
+  </si>
+  <si>
+    <t>VIT,AMIGO2,RGS14,DUSP5,STRIP2,MAP3K15,PCP4,HS3ST4,SYCE2,NTSR2,SOSTDC1</t>
+  </si>
+  <si>
+    <t>CLDN22,CD109,IYD,IFI203,PRSS35,CYP26B1,CPNE9,CYP26B1,HS3ST4,HOMER3,BOK,PRKCD</t>
+  </si>
+  <si>
+    <t>NKD2,HS3ST4,BOK,COCH,VGLL3,BACE2,HOMER3</t>
+  </si>
+  <si>
+    <t>EBF3,TRP73,RELN,NHLH2,CACNA2D2,EYA2,LHX1OS</t>
+  </si>
+  <si>
+    <t>TMEM72,WFDC2,FOLR1,OTX2OS1,CLDN2,OTX2,CLIC6,KCNE2,SLC13A4</t>
+  </si>
+  <si>
+    <t>CALB2,GLP1R,GRM8,DRD2,PRRX1,GAL,CHGA,CNTN6,VAT1,RAC3,AJAP1,GLRA3,ONECUT2,CPNE9,HPCAL1,DRD2,RBPMS2,CPNE9,C1QL3</t>
+  </si>
+  <si>
+    <t>ESAM,CDH5,LY6A,USHBP1,KANK3,CMTM8,FN1,PROM1,PLTP,OCLN,ABCB1A,EGFL7,CGNL1,FOXQ1,KLF4,FGD5,ID1,PGLYRP1,PAQR5,LTBP4,KLF2,GIMAP6,ATP10A,TEK,PRKCH,CYYR1,ABCC4,CLEC2D,EBF1,PTPRB,NOS3,PODXL,CLIC5,LEF1,SLC2A1,AFAP1L1,SLCO1A4,ROBO4,TIE1,MECOM,ZFP366,CLDN5,ENG,SOX18,HMCN1,HSPA12B,KITL,NOSTRIN,VWA1,FLT1,PECAM1,ABCG2</t>
+  </si>
+  <si>
+    <t>FOXJ1,SNTN,KRT15,TMEM212,DYNLRB2,CFAP126,CCDC146,CCDC153,AK7,SPAG17,ENKUR,SPAG17,SPA17,MLF1,RIIAD1,SPEF2,MEIG1</t>
+  </si>
+  <si>
+    <t>SLC22A6,ISLR,LAMA1,FMOD,BMP6,LAMC3,COL13A1,LUM,GJB2,GPR182,COL4A6,OSR1,SLC6A13,COL1A1,BMP7,GXYLT2,COL4A5,CYP1B1,SLC13A3,MPZL2,ENPP1,COL1A2,CPED1,EYA2,AOX3,ARHGAP28,NUPR1,COL3A1,SLC13A4,RANBP3L,PDGFRA,PTGDS,SLC13A4</t>
+  </si>
+  <si>
+    <t>FAM20A,EZR,BMPR1B,SOX9,ACSBG1,FABP7,GFAP,AQP4,ID4,SLC6A11,RORB,ACOT11,MYOC,SLC39A12,ACSBG1,FXYD1</t>
+  </si>
+  <si>
+    <t>PCP4,ARSJ,CENPA,GSG1L,SV2C,PROX1,STXBP6,RFX3,PRTG,C1QL3,NTF3,ARSJ,SEMA5A,ZFHX2OS,KCNK1,STXBP6,SOX11,GM20687,NEUROD1</t>
+  </si>
+  <si>
+    <t>SV2C,GAD2,DLX1,SLC32A1,COL19A1,LHX6,CORT,GAD1,PVALB,SST,VGAT,SLC6A1,ALK,CNTNAP4,KCNMB2,CNTNAP3,DLX6OS1,DLX1AS</t>
+  </si>
+  <si>
+    <t>PCP4,PROX1,CALB1,FAM163B,C1QL3,DSP,LCT,NTF3,GMNC,ARSJ,NPNT,CCNJL,DSP,SEMA5A,KCNK1,STXBP6,GFRA2,NTF3</t>
+  </si>
+  <si>
+    <t>TOP2A,IGFBPL1,HMGB2,ASCL1,SOX4,SOX11,NEUROD1</t>
+  </si>
+  <si>
+    <t>TTYH2,CPM,CARHSP1,EFHD1,CRYAB,OPALIN,TMEM88B,MOG,PLEKHH1,CLDN11,TNFAIP6,TMEM63A,GALNT6,CYP2J12,UGT8A,PHLDB1,PPP1R14A,PTGDS,MAG,CCP110,ANLN,MAL,CNP,QDPR,HHIP,IL33,FA2H,MOBP,TNNI1</t>
+  </si>
+  <si>
+    <t>KCNJ8,ECM2,LIMD1,ITGA1,IFITM1,NBL1,CSPG4,PDE5A,VTN,PLXDC1,IGFBP7,IL34,ADAP2,CYSLTR2,SLC6A20A,GGT5,ABCC9,HIGD1B,ATP13A5,EGFLAM,AIRN,ZIC1,NDUFA4L2,PHLDB2,DCDC2A,MYO1B,SLC16A12,COLEC12,ATP2A3,FOXD1,ART3,GPER1,RGS5,SNTB1,NID1,PDGFRB,NOTCH3,ANO1,RBPMS,NID1,TBX3OS1,GM13861,EBF1</t>
+  </si>
+  <si>
+    <t>PPFIBP1,B3GAT2,NTN1,CALCRL,PRKCQ,STK32A,ARHGAP24,CSPG4,RLBP1,LHFPL3,CAR8,SH3BP4,ITGA9,GM4876,AFAP1L2,NEU4,CACNG4,SEMA3D,C1QL1,SHC4,MEGF11,SEMA5B,ABTB2,EMID1,KCNH8,PDGFRA,TMEM163</t>
+  </si>
+  <si>
+    <t>AOAH,CTSC,MS4A7,MRC1,F13A1,CLEC4A1,DOCK8,FCGR2B,CYBB,CD86,BANK1,MS4A6D,PF4,LYZ2,CFH,MS4A6C,TGFBI,FYB,RUNX1,SLCO2B1,ABCA9,HPGDS,CSF1R,B4GALT1,IFI203</t>
+  </si>
+  <si>
+    <t>MYLK,MYL9,MYO1E,ARHGAP6,RHOJ,C1QTNF7,LIMD1,LTBP1,PDE3A,GM13861,RNF152,FLNA,DES,AOC3,ADAMTS1,ARHGAP10,RASGRP2,MYH11,BGN,SNTB1,SLC38A11,RBPMS,FILIP1L,EBF1,TNS1,EHD2,WNT5B,FOXC1,MAP3K7CL,EDNRA,MYOCD,ANO1,FILIP1,GPER1,AHNAK,NET1,ACTA2,MCAM,NTN4,MUSTN1,PLN,NOTCH3,TAGLN,MYL9</t>
+  </si>
+  <si>
+    <t>FAM20A,EZR,PHKG1,BMPR1B,FGFR3,SOX9,ACSBG1,NWD1,F3,PRDM16,AQP4,SLC6A11,ST3GAL4,RORB,ACOT11,GLI3,GRIN2C,UNC13,SLC39A12,ACSBG1</t>
+  </si>
+  <si>
+    <t>NPSR1,GSG1L,GRM4,RXFP1,CHRM2,NREP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1660,6 +1812,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1681,7 +1847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1698,9 +1864,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2011,23 +2183,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="214.68359375" customWidth="1"/>
-    <col min="4" max="4" width="27.1015625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="214.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
@@ -2059,7 +2231,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -2074,7 +2246,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
@@ -2089,7 +2261,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -2104,7 +2276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2121,7 +2293,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>95</v>
       </c>
@@ -2138,7 +2310,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>95</v>
       </c>
@@ -2155,7 +2327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -2170,7 +2342,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -2185,7 +2357,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
@@ -2202,7 +2374,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -2219,7 +2391,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>95</v>
       </c>
@@ -2236,7 +2408,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
@@ -2251,7 +2423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -2266,7 +2438,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
@@ -2281,7 +2453,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
@@ -2298,7 +2470,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
@@ -2313,7 +2485,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>95</v>
       </c>
@@ -2328,7 +2500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2343,7 +2515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2358,7 +2530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -2375,7 +2547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -2392,7 +2564,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -2409,7 +2581,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -2426,7 +2598,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -2441,7 +2613,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
@@ -2456,7 +2628,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -2471,7 +2643,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
@@ -2503,7 +2675,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2518,7 +2690,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>95</v>
       </c>
@@ -2533,7 +2705,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2548,7 +2720,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -2563,7 +2735,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2578,7 +2750,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -2593,7 +2765,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
@@ -2608,7 +2780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
@@ -2623,7 +2795,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>71</v>
       </c>
@@ -2638,7 +2810,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>71</v>
       </c>
@@ -2653,7 +2825,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
@@ -2668,7 +2840,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -2683,7 +2855,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>71</v>
       </c>
@@ -2698,7 +2870,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
@@ -2713,7 +2885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
@@ -2728,7 +2900,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
@@ -2743,7 +2915,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>71</v>
       </c>
@@ -2758,7 +2930,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>71</v>
       </c>
@@ -2773,7 +2945,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -2788,7 +2960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -2803,7 +2975,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -2818,7 +2990,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2833,7 +3005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -2848,7 +3020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>50</v>
       </c>
@@ -2863,7 +3035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -2878,7 +3050,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -2893,7 +3065,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2908,7 +3080,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -2923,7 +3095,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>50</v>
       </c>
@@ -2938,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
@@ -2953,7 +3125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +3140,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>109</v>
       </c>
@@ -2983,7 +3155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>109</v>
       </c>
@@ -2998,7 +3170,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>109</v>
       </c>
@@ -3013,7 +3185,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>109</v>
       </c>
@@ -3028,7 +3200,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>109</v>
       </c>
@@ -3043,7 +3215,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>109</v>
       </c>
@@ -3058,7 +3230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>109</v>
       </c>
@@ -3073,7 +3245,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>109</v>
       </c>
@@ -3088,7 +3260,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>109</v>
       </c>
@@ -3103,7 +3275,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>109</v>
       </c>
@@ -3118,7 +3290,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>109</v>
       </c>
@@ -3133,7 +3305,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>109</v>
       </c>
@@ -3148,7 +3320,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
@@ -3163,7 +3335,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>109</v>
       </c>
@@ -3178,7 +3350,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>109</v>
       </c>
@@ -3193,7 +3365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>109</v>
       </c>
@@ -3208,7 +3380,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>109</v>
       </c>
@@ -3223,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>109</v>
       </c>
@@ -3238,7 +3410,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>109</v>
       </c>
@@ -3253,7 +3425,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>109</v>
       </c>
@@ -3268,7 +3440,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>109</v>
       </c>
@@ -3283,7 +3455,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
@@ -3298,7 +3470,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>150</v>
       </c>
@@ -3313,7 +3485,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>150</v>
       </c>
@@ -3328,7 +3500,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>150</v>
       </c>
@@ -3343,7 +3515,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +3530,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>150</v>
       </c>
@@ -3373,7 +3545,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>150</v>
       </c>
@@ -3388,7 +3560,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -3403,7 +3575,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>150</v>
       </c>
@@ -3418,7 +3590,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>150</v>
       </c>
@@ -3433,7 +3605,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>150</v>
       </c>
@@ -3448,7 +3620,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>150</v>
       </c>
@@ -3463,7 +3635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>150</v>
       </c>
@@ -3478,7 +3650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>150</v>
       </c>
@@ -3493,7 +3665,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>150</v>
       </c>
@@ -3508,7 +3680,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>150</v>
       </c>
@@ -3523,7 +3695,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>150</v>
       </c>
@@ -3538,7 +3710,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>150</v>
       </c>
@@ -3553,7 +3725,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>150</v>
       </c>
@@ -3568,7 +3740,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +3755,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>150</v>
       </c>
@@ -3598,7 +3770,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -3613,7 +3785,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -3673,7 +3845,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -3688,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -3703,7 +3875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -3733,7 +3905,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3935,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +3950,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -3793,7 +3965,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +3980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +4010,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +4025,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +4040,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -3883,7 +4055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +4070,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +4085,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -3928,7 +4100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +4115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>236</v>
       </c>
@@ -3958,7 +4130,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>236</v>
       </c>
@@ -3973,7 +4145,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>236</v>
       </c>
@@ -3988,7 +4160,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>236</v>
       </c>
@@ -4003,7 +4175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>236</v>
       </c>
@@ -4018,7 +4190,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>236</v>
       </c>
@@ -4033,7 +4205,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>236</v>
       </c>
@@ -4048,7 +4220,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>236</v>
       </c>
@@ -4063,7 +4235,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>236</v>
       </c>
@@ -4078,7 +4250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>236</v>
       </c>
@@ -4093,7 +4265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>236</v>
       </c>
@@ -4108,7 +4280,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>236</v>
       </c>
@@ -4123,7 +4295,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>236</v>
       </c>
@@ -4138,7 +4310,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>236</v>
       </c>
@@ -4153,7 +4325,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>236</v>
       </c>
@@ -4168,7 +4340,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>391</v>
       </c>
@@ -4181,7 +4353,7 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>391</v>
       </c>
@@ -4194,7 +4366,7 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>391</v>
       </c>
@@ -4207,7 +4379,7 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>391</v>
       </c>
@@ -4220,7 +4392,7 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>391</v>
       </c>
@@ -4233,7 +4405,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>391</v>
       </c>
@@ -4246,7 +4418,7 @@
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>391</v>
       </c>
@@ -4259,7 +4431,7 @@
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>391</v>
       </c>
@@ -4272,7 +4444,7 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>391</v>
       </c>
@@ -4285,7 +4457,7 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>391</v>
       </c>
@@ -4298,7 +4470,7 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>391</v>
       </c>
@@ -4311,7 +4483,7 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>391</v>
       </c>
@@ -4324,7 +4496,7 @@
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>416</v>
       </c>
@@ -4337,7 +4509,7 @@
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>416</v>
       </c>
@@ -4350,7 +4522,7 @@
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>416</v>
       </c>
@@ -4363,7 +4535,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>416</v>
       </c>
@@ -4376,7 +4548,7 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>416</v>
       </c>
@@ -4389,7 +4561,7 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>416</v>
       </c>
@@ -4402,7 +4574,7 @@
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>416</v>
       </c>
@@ -4415,7 +4587,7 @@
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>416</v>
       </c>
@@ -4428,7 +4600,7 @@
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>416</v>
       </c>
@@ -4441,7 +4613,7 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>416</v>
       </c>
@@ -4454,7 +4626,7 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>416</v>
       </c>
@@ -4467,7 +4639,7 @@
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>416</v>
       </c>
@@ -4480,7 +4652,7 @@
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>416</v>
       </c>
@@ -4493,7 +4665,7 @@
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>416</v>
       </c>
@@ -4506,7 +4678,7 @@
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>416</v>
       </c>
@@ -4519,7 +4691,7 @@
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>416</v>
       </c>
@@ -4532,7 +4704,7 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>440</v>
       </c>
@@ -4545,7 +4717,7 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>440</v>
       </c>
@@ -4558,7 +4730,7 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>440</v>
       </c>
@@ -4571,7 +4743,7 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>440</v>
       </c>
@@ -4584,7 +4756,7 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>440</v>
       </c>
@@ -4597,7 +4769,7 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>440</v>
       </c>
@@ -4610,7 +4782,7 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>440</v>
       </c>
@@ -4623,7 +4795,7 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>440</v>
       </c>
@@ -4636,7 +4808,7 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>440</v>
       </c>
@@ -4649,7 +4821,7 @@
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>440</v>
       </c>
@@ -4662,7 +4834,7 @@
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>440</v>
       </c>
@@ -4675,7 +4847,7 @@
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>440</v>
       </c>
@@ -4688,7 +4860,7 @@
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>273</v>
       </c>
@@ -4701,7 +4873,7 @@
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>273</v>
       </c>
@@ -4714,7 +4886,7 @@
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>273</v>
       </c>
@@ -4727,7 +4899,7 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>273</v>
       </c>
@@ -4740,7 +4912,7 @@
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>273</v>
       </c>
@@ -4753,7 +4925,7 @@
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>273</v>
       </c>
@@ -4766,7 +4938,7 @@
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>273</v>
       </c>
@@ -4779,7 +4951,7 @@
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>273</v>
       </c>
@@ -4792,7 +4964,7 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>273</v>
       </c>
@@ -4805,7 +4977,7 @@
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>273</v>
       </c>
@@ -4818,7 +4990,7 @@
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>273</v>
       </c>
@@ -4831,7 +5003,7 @@
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>468</v>
       </c>
@@ -4844,7 +5016,7 @@
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>468</v>
       </c>
@@ -4857,7 +5029,7 @@
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>468</v>
       </c>
@@ -4870,7 +5042,7 @@
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>468</v>
       </c>
@@ -4883,7 +5055,7 @@
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>468</v>
       </c>
@@ -4896,7 +5068,7 @@
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>468</v>
       </c>
@@ -4909,7 +5081,7 @@
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>468</v>
       </c>
@@ -4922,7 +5094,7 @@
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>468</v>
       </c>
@@ -4935,7 +5107,7 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>468</v>
       </c>
@@ -4948,7 +5120,7 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>468</v>
       </c>
@@ -4961,7 +5133,7 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>468</v>
       </c>
@@ -4974,7 +5146,7 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>468</v>
       </c>
@@ -4987,7 +5159,7 @@
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>487</v>
       </c>
@@ -5000,7 +5172,7 @@
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>487</v>
       </c>
@@ -5013,7 +5185,7 @@
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>487</v>
       </c>
@@ -5026,7 +5198,7 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>487</v>
       </c>
@@ -5039,7 +5211,7 @@
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>487</v>
       </c>
@@ -5052,7 +5224,7 @@
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>487</v>
       </c>
@@ -5065,7 +5237,7 @@
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>487</v>
       </c>
@@ -5078,7 +5250,7 @@
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>487</v>
       </c>
@@ -5091,7 +5263,7 @@
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>487</v>
       </c>
@@ -5104,7 +5276,7 @@
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>498</v>
       </c>
@@ -5117,7 +5289,7 @@
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>498</v>
       </c>
@@ -5130,7 +5302,7 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>498</v>
       </c>
@@ -5143,7 +5315,7 @@
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>498</v>
       </c>
@@ -5156,7 +5328,7 @@
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>498</v>
       </c>
@@ -5169,7 +5341,7 @@
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>498</v>
       </c>
@@ -5182,7 +5354,7 @@
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>498</v>
       </c>
@@ -5195,7 +5367,7 @@
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>498</v>
       </c>
@@ -5208,7 +5380,7 @@
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>498</v>
       </c>
@@ -5221,7 +5393,7 @@
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>498</v>
       </c>
@@ -5234,7 +5406,7 @@
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>498</v>
       </c>
@@ -5247,7 +5419,7 @@
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>498</v>
       </c>
@@ -5260,7 +5432,7 @@
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>498</v>
       </c>
@@ -5273,7 +5445,7 @@
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>498</v>
       </c>
@@ -5286,7 +5458,7 @@
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>498</v>
       </c>
@@ -5299,7 +5471,7 @@
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>498</v>
       </c>
@@ -5312,7 +5484,7 @@
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>521</v>
       </c>
@@ -5325,7 +5497,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>521</v>
       </c>
@@ -5338,7 +5510,7 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>521</v>
       </c>
@@ -5351,7 +5523,7 @@
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>521</v>
       </c>
@@ -5364,7 +5536,7 @@
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>521</v>
       </c>
@@ -5377,7 +5549,7 @@
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>95</v>
       </c>
@@ -5392,7 +5564,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>71</v>
       </c>
@@ -5407,7 +5579,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>50</v>
       </c>
@@ -5422,7 +5594,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>109</v>
       </c>
@@ -5437,7 +5609,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>236</v>
       </c>
@@ -5452,7 +5624,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>7</v>
       </c>
@@ -5467,7 +5639,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>7</v>
       </c>
@@ -5482,7 +5654,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>150</v>
       </c>
@@ -5497,8 +5669,305 @@
         <v>348</v>
       </c>
     </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
